--- a/data/project_NO3/groups.xlsx
+++ b/data/project_NO3/groups.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="pNGR5" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Ppd" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Rht-B1" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="wheat_triticale" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
   <si>
     <t xml:space="preserve">Вариант 1</t>
   </si>
@@ -94,6 +95,57 @@
   </si>
   <si>
     <t xml:space="preserve">Вариант3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вариант 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Андромеда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Илия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Харьковская 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тихон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Афина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хлебороб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Венец</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кристалл 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Услада</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Курант</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Крупинка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фишт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лазурит</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Бирюза</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Дока</t>
   </si>
 </sst>
 </file>
@@ -197,15 +249,15 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18"/>
   </cols>
   <sheetData>
@@ -413,11 +465,11 @@
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.63"/>
   </cols>
   <sheetData>
@@ -595,13 +647,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="2.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="2.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -757,4 +809,293 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/data/project_NO3/groups.xlsx
+++ b/data/project_NO3/groups.xlsx
@@ -40,22 +40,22 @@
     <t xml:space="preserve">Vassa</t>
   </si>
   <si>
-    <t xml:space="preserve">pNGR5-1Ba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ppd-D1a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rht-B1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soft wheat</t>
+    <t xml:space="preserve">pNGR5_1Ba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ppd_D1a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rht_B1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soft_wheat</t>
   </si>
   <si>
     <t xml:space="preserve">Ehtnos</t>
   </si>
   <si>
-    <t xml:space="preserve">pNGR5-1Bb</t>
+    <t xml:space="preserve">pNGR5_1Bb</t>
   </si>
   <si>
     <t xml:space="preserve">Yunona</t>
@@ -70,7 +70,7 @@
     <t xml:space="preserve">Grom</t>
   </si>
   <si>
-    <t xml:space="preserve">Rht-B1e</t>
+    <t xml:space="preserve">Rht_B1e</t>
   </si>
   <si>
     <t xml:space="preserve">Tanya</t>
@@ -79,10 +79,10 @@
     <t xml:space="preserve">Altigo</t>
   </si>
   <si>
-    <t xml:space="preserve">Ppd-D1b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rht-B1a</t>
+    <t xml:space="preserve">Ppd_D1b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rht_B1a</t>
   </si>
   <si>
     <t xml:space="preserve">Pobeda50</t>
@@ -121,7 +121,7 @@
     <t xml:space="preserve">Andromeda</t>
   </si>
   <si>
-    <t xml:space="preserve">Durum wheat</t>
+    <t xml:space="preserve">Durum_wheat</t>
   </si>
   <si>
     <t xml:space="preserve">Iliya</t>
@@ -270,12 +270,12 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
